--- a/dating-recommendation/MAE.xlsx
+++ b/dating-recommendation/MAE.xlsx
@@ -55,19 +55,19 @@
     <t>POPULAR</t>
   </si>
   <si>
-    <t>UBCF_jacard</t>
-  </si>
-  <si>
-    <t>IBCF_jacard</t>
-  </si>
-  <si>
-    <t>UBCF_COSINE</t>
-  </si>
-  <si>
     <t>BASELINE</t>
   </si>
   <si>
-    <t>BELLKOV</t>
+    <t>BELLKOR</t>
+  </si>
+  <si>
+    <t>IBCF_jaccard</t>
+  </si>
+  <si>
+    <t>UBCF_jaccard</t>
+  </si>
+  <si>
+    <t>UBCF_cosine</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>3.3333330000000001</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4.7407409999999999</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4.6666670000000003</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>3.1111110000000002</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>2.8518520000000001</v>
